--- a/Project_File/테이블명세서.xlsx
+++ b/Project_File/테이블명세서.xlsx
@@ -4,279 +4,258 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18450" windowHeight="10185" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="10260"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="일반회원" sheetId="1" r:id="rId4"/>
     <x:sheet name="의사" sheetId="2" r:id="rId5"/>
     <x:sheet name="예약" sheetId="3" r:id="rId6"/>
-    <x:sheet name="예약 목록" sheetId="4" r:id="rId7"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="4294967295"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="85">
-  <x:si>
-    <x:t>doctor_major</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>medical_check</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserv_time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외래키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성별</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본키</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나이</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="79">
   <x:si>
     <x:t>내과, 일반외과, 정형외과, 소아과
 안과, 이비인후과, 피부과
 비뇨기과, 정신과, 성형외과</x:t>
   </x:si>
   <x:si>
-    <x:t>REFERENCES reservation(reserv_date)
-YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(6)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REFERENCES doctor(doctor_num)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>doctor_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SYSDATE, 'YYYY-MM-DD HH24:MI:SS'</x:t>
+    <x:t>medical_check</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(10)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>identity_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(13)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외래키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK</x:t>
   </x:si>
   <x:si>
     <x:t>예약</x:t>
   </x:si>
   <x:si>
-    <x:t>VARCHAR2(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patient_age</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patient_pwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(8)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>created_at</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(8 CHAR)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(19)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IN('M', 'F')</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(13)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patient_gender</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patient_phone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patient_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>identity_num</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(20)</x:t>
+    <x:t>기본키</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YYYY.MM.DD</x:t>
   </x:si>
   <x:si>
     <x:t>IN('Y', 'N')
 DEFAULT 'N'</x:t>
   </x:si>
   <x:si>
+    <x:t>진료여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Column</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제약 조건</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHECK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주민등록번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의사번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴대전화번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Table</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예약시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증상메모</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HH:MM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Null</x:t>
+  </x:si>
+  <x:si>
+    <x:t>취소사유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가입날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Patient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Doctor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEFAULT ''</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFERENCES doctor(doctor_num)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SYSDATE, 'YYYY-MM-DD HH24:MI:SS'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REFERENCES patient(identity_num)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserv_time</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(5)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Constraint</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reserv_date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Data Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>doctor_num</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUMBER(3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>doctor_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>created_at</x:t>
+  </x:si>
+  <x:si>
+    <x:t>doctor_pwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patient_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reservation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(8)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patient_pwd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patient_age</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(6)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patient_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cancel_reason</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(19)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>doctor_major</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patient_phone</x:t>
+  </x:si>
+  <x:si>
     <x:t>symptoms_memo</x:t>
   </x:si>
   <x:si>
-    <x:t>진료여부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Doctor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증상메모</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의사번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>취소사유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가입날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴대전화번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Null</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Column</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제약 조건</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HH:MM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주민등록번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Patient</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Table</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHECK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>doctor_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Constraint</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUMBER(3)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Data Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>patient_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>doctor_pwd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>reserv_date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(5)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YYYY-MM-DD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REFERENCES reservation(reserv_time)
-HH:MM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR2(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reservation_List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예약 목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SEQUENCE list_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REFERENCES patient(identity_num)</x:t>
+    <x:t>patient_gender</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IN('M', 'F')</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(50)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR2(8 CHAR)</x:t>
   </x:si>
   <x:si>
     <x:t>VARCHAR2(5 CHAR)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cancel_reason</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -682,7 +661,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="40">
+  <x:cellXfs count="36">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -847,214 +826,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1133,52 +904,208 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1903,7 +1830,7 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="B2:J26"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1922,100 +1849,100 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C2" s="17"/>
-      <x:c r="D2" s="20" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
-      <x:c r="H2" s="20"/>
-      <x:c r="I2" s="20"/>
-      <x:c r="J2" s="21"/>
+      <x:c r="B2" s="22" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="26" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E2" s="26"/>
+      <x:c r="F2" s="26"/>
+      <x:c r="G2" s="26"/>
+      <x:c r="H2" s="26"/>
+      <x:c r="I2" s="26"/>
+      <x:c r="J2" s="27"/>
     </x:row>
     <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="18"/>
-      <x:c r="C3" s="19"/>
-      <x:c r="D3" s="22" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="22"/>
-      <x:c r="G3" s="22"/>
-      <x:c r="H3" s="22"/>
-      <x:c r="I3" s="22"/>
-      <x:c r="J3" s="23"/>
+      <x:c r="B3" s="24"/>
+      <x:c r="C3" s="25"/>
+      <x:c r="D3" s="28" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E3" s="28"/>
+      <x:c r="F3" s="28"/>
+      <x:c r="G3" s="28"/>
+      <x:c r="H3" s="28"/>
+      <x:c r="I3" s="28"/>
+      <x:c r="J3" s="29"/>
     </x:row>
     <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="16" t="s">
+      <x:c r="B4" s="22" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="20" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="21"/>
+      <x:c r="E4" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F4" s="30" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G4" s="31"/>
+      <x:c r="H4" s="32" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I4" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J4" s="23" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="24"/>
+      <x:c r="C5" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D5" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F5" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G5" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="14" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="7" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F4" s="24" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" s="25"/>
-      <x:c r="H4" s="26" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I4" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J4" s="17" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="18"/>
-      <x:c r="C5" s="8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D5" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="8" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G5" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="27"/>
+      <x:c r="H5" s="33"/>
       <x:c r="I5" s="8" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J5" s="19"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J5" s="25"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="10">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>58</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>33</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I6" s="10"/>
       <x:c r="J6" s="12"/>
@@ -2025,21 +1952,21 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>70</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F7" s="11"/>
       <x:c r="G7" s="11"/>
       <x:c r="H7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I7" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J7" s="11"/>
     </x:row>
@@ -2048,18 +1975,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>27</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F8" s="11"/>
       <x:c r="G8" s="11"/>
       <x:c r="H8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I8" s="11"/>
       <x:c r="J8" s="11"/>
@@ -2069,18 +1996,18 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F9" s="11"/>
       <x:c r="G9" s="11"/>
       <x:c r="H9" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I9" s="11"/>
       <x:c r="J9" s="11"/>
@@ -2090,18 +2017,18 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F10" s="11"/>
       <x:c r="G10" s="11"/>
       <x:c r="H10" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I10" s="11"/>
       <x:c r="J10" s="11"/>
@@ -2111,24 +2038,24 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F11" s="11"/>
       <x:c r="G11" s="11"/>
       <x:c r="H11" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I11" s="11" t="s">
-        <x:v>63</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J11" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:10" ht="20" customHeight="1">
@@ -2136,18 +2063,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>33</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F12" s="11"/>
       <x:c r="G12" s="11"/>
       <x:c r="H12" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I12" s="11"/>
       <x:c r="J12" s="11"/>
@@ -2157,156 +2084,156 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>50</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F13" s="11"/>
       <x:c r="G13" s="11"/>
       <x:c r="H13" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I13" s="11"/>
       <x:c r="J13" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="14" ht="20" customHeight="1"/>
     <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="28"/>
-      <x:c r="C15" s="28"/>
-      <x:c r="D15" s="29"/>
-      <x:c r="E15" s="29"/>
-      <x:c r="F15" s="29"/>
-      <x:c r="G15" s="29"/>
-      <x:c r="H15" s="29"/>
-      <x:c r="I15" s="29"/>
-      <x:c r="J15" s="29"/>
+      <x:c r="B15" s="34"/>
+      <x:c r="C15" s="34"/>
+      <x:c r="D15" s="35"/>
+      <x:c r="E15" s="35"/>
+      <x:c r="F15" s="35"/>
+      <x:c r="G15" s="35"/>
+      <x:c r="H15" s="35"/>
+      <x:c r="I15" s="35"/>
+      <x:c r="J15" s="35"/>
     </x:row>
     <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="28"/>
-      <x:c r="C16" s="28"/>
-      <x:c r="D16" s="29"/>
-      <x:c r="E16" s="29"/>
-      <x:c r="F16" s="29"/>
-      <x:c r="G16" s="29"/>
-      <x:c r="H16" s="29"/>
-      <x:c r="I16" s="29"/>
-      <x:c r="J16" s="29"/>
+      <x:c r="B16" s="34"/>
+      <x:c r="C16" s="34"/>
+      <x:c r="D16" s="35"/>
+      <x:c r="E16" s="35"/>
+      <x:c r="F16" s="35"/>
+      <x:c r="G16" s="35"/>
+      <x:c r="H16" s="35"/>
+      <x:c r="I16" s="35"/>
+      <x:c r="J16" s="35"/>
     </x:row>
     <x:row r="17" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B17" s="28"/>
-      <x:c r="C17" s="28"/>
-      <x:c r="D17" s="28"/>
-      <x:c r="E17" s="30"/>
-      <x:c r="F17" s="28"/>
-      <x:c r="G17" s="28"/>
-      <x:c r="H17" s="28"/>
-      <x:c r="I17" s="30"/>
-      <x:c r="J17" s="28"/>
+      <x:c r="B17" s="34"/>
+      <x:c r="C17" s="34"/>
+      <x:c r="D17" s="34"/>
+      <x:c r="E17" s="14"/>
+      <x:c r="F17" s="34"/>
+      <x:c r="G17" s="34"/>
+      <x:c r="H17" s="34"/>
+      <x:c r="I17" s="14"/>
+      <x:c r="J17" s="34"/>
     </x:row>
     <x:row r="18" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B18" s="28"/>
-      <x:c r="C18" s="30"/>
-      <x:c r="D18" s="30"/>
-      <x:c r="E18" s="30"/>
-      <x:c r="F18" s="30"/>
-      <x:c r="G18" s="30"/>
-      <x:c r="H18" s="28"/>
-      <x:c r="I18" s="30"/>
-      <x:c r="J18" s="28"/>
+      <x:c r="B18" s="34"/>
+      <x:c r="C18" s="14"/>
+      <x:c r="D18" s="14"/>
+      <x:c r="E18" s="14"/>
+      <x:c r="F18" s="14"/>
+      <x:c r="G18" s="14"/>
+      <x:c r="H18" s="34"/>
+      <x:c r="I18" s="14"/>
+      <x:c r="J18" s="34"/>
     </x:row>
     <x:row r="19" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B19" s="31"/>
-      <x:c r="C19" s="31"/>
-      <x:c r="D19" s="31"/>
-      <x:c r="E19" s="31"/>
-      <x:c r="F19" s="31"/>
-      <x:c r="G19" s="31"/>
-      <x:c r="H19" s="31"/>
-      <x:c r="I19" s="31"/>
-      <x:c r="J19" s="32"/>
+      <x:c r="B19" s="15"/>
+      <x:c r="C19" s="15"/>
+      <x:c r="D19" s="15"/>
+      <x:c r="E19" s="15"/>
+      <x:c r="F19" s="15"/>
+      <x:c r="G19" s="15"/>
+      <x:c r="H19" s="15"/>
+      <x:c r="I19" s="15"/>
+      <x:c r="J19" s="16"/>
     </x:row>
     <x:row r="20" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B20" s="31"/>
-      <x:c r="C20" s="31"/>
-      <x:c r="D20" s="31"/>
-      <x:c r="E20" s="31"/>
-      <x:c r="F20" s="31"/>
-      <x:c r="G20" s="31"/>
-      <x:c r="H20" s="31"/>
-      <x:c r="I20" s="31"/>
-      <x:c r="J20" s="31"/>
+      <x:c r="B20" s="15"/>
+      <x:c r="C20" s="15"/>
+      <x:c r="D20" s="15"/>
+      <x:c r="E20" s="15"/>
+      <x:c r="F20" s="15"/>
+      <x:c r="G20" s="15"/>
+      <x:c r="H20" s="15"/>
+      <x:c r="I20" s="15"/>
+      <x:c r="J20" s="15"/>
     </x:row>
     <x:row r="21" spans="2:10">
-      <x:c r="B21" s="31"/>
-      <x:c r="C21" s="31"/>
-      <x:c r="D21" s="31"/>
-      <x:c r="E21" s="31"/>
-      <x:c r="F21" s="31"/>
-      <x:c r="G21" s="31"/>
-      <x:c r="H21" s="31"/>
-      <x:c r="I21" s="31"/>
-      <x:c r="J21" s="31"/>
+      <x:c r="B21" s="15"/>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="15"/>
+      <x:c r="E21" s="15"/>
+      <x:c r="F21" s="15"/>
+      <x:c r="G21" s="15"/>
+      <x:c r="H21" s="15"/>
+      <x:c r="I21" s="15"/>
+      <x:c r="J21" s="15"/>
     </x:row>
     <x:row r="22" spans="2:10">
-      <x:c r="B22" s="31"/>
-      <x:c r="C22" s="31"/>
-      <x:c r="D22" s="31"/>
-      <x:c r="E22" s="31"/>
-      <x:c r="F22" s="31"/>
-      <x:c r="G22" s="31"/>
-      <x:c r="H22" s="31"/>
-      <x:c r="I22" s="31"/>
-      <x:c r="J22" s="31"/>
+      <x:c r="B22" s="15"/>
+      <x:c r="C22" s="15"/>
+      <x:c r="D22" s="15"/>
+      <x:c r="E22" s="15"/>
+      <x:c r="F22" s="15"/>
+      <x:c r="G22" s="15"/>
+      <x:c r="H22" s="15"/>
+      <x:c r="I22" s="15"/>
+      <x:c r="J22" s="15"/>
     </x:row>
     <x:row r="23" spans="2:10">
-      <x:c r="B23" s="31"/>
-      <x:c r="C23" s="31"/>
-      <x:c r="D23" s="31"/>
-      <x:c r="E23" s="31"/>
-      <x:c r="F23" s="31"/>
-      <x:c r="G23" s="31"/>
-      <x:c r="H23" s="31"/>
-      <x:c r="I23" s="31"/>
-      <x:c r="J23" s="31"/>
+      <x:c r="B23" s="15"/>
+      <x:c r="C23" s="15"/>
+      <x:c r="D23" s="15"/>
+      <x:c r="E23" s="15"/>
+      <x:c r="F23" s="15"/>
+      <x:c r="G23" s="15"/>
+      <x:c r="H23" s="15"/>
+      <x:c r="I23" s="15"/>
+      <x:c r="J23" s="15"/>
     </x:row>
     <x:row r="24" spans="2:10">
-      <x:c r="B24" s="31"/>
-      <x:c r="C24" s="31"/>
-      <x:c r="D24" s="31"/>
-      <x:c r="E24" s="31"/>
-      <x:c r="F24" s="31"/>
-      <x:c r="G24" s="31"/>
-      <x:c r="H24" s="31"/>
-      <x:c r="I24" s="31"/>
-      <x:c r="J24" s="31"/>
+      <x:c r="B24" s="15"/>
+      <x:c r="C24" s="15"/>
+      <x:c r="D24" s="15"/>
+      <x:c r="E24" s="15"/>
+      <x:c r="F24" s="15"/>
+      <x:c r="G24" s="15"/>
+      <x:c r="H24" s="15"/>
+      <x:c r="I24" s="15"/>
+      <x:c r="J24" s="15"/>
     </x:row>
     <x:row r="25" spans="2:10">
-      <x:c r="B25" s="31"/>
-      <x:c r="C25" s="31"/>
-      <x:c r="D25" s="31"/>
-      <x:c r="E25" s="31"/>
-      <x:c r="F25" s="31"/>
-      <x:c r="G25" s="31"/>
-      <x:c r="H25" s="31"/>
-      <x:c r="I25" s="31"/>
-      <x:c r="J25" s="31"/>
+      <x:c r="B25" s="15"/>
+      <x:c r="C25" s="15"/>
+      <x:c r="D25" s="15"/>
+      <x:c r="E25" s="15"/>
+      <x:c r="F25" s="15"/>
+      <x:c r="G25" s="15"/>
+      <x:c r="H25" s="15"/>
+      <x:c r="I25" s="15"/>
+      <x:c r="J25" s="15"/>
     </x:row>
     <x:row r="26" spans="2:10">
-      <x:c r="B26" s="31"/>
-      <x:c r="C26" s="31"/>
-      <x:c r="D26" s="31"/>
-      <x:c r="E26" s="31"/>
-      <x:c r="F26" s="31"/>
-      <x:c r="G26" s="31"/>
-      <x:c r="H26" s="31"/>
-      <x:c r="I26" s="31"/>
-      <x:c r="J26" s="31"/>
+      <x:c r="B26" s="15"/>
+      <x:c r="C26" s="15"/>
+      <x:c r="D26" s="15"/>
+      <x:c r="E26" s="15"/>
+      <x:c r="F26" s="15"/>
+      <x:c r="G26" s="15"/>
+      <x:c r="H26" s="15"/>
+      <x:c r="I26" s="15"/>
+      <x:c r="J26" s="15"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="16">
@@ -2356,100 +2283,100 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C2" s="17"/>
-      <x:c r="D2" s="20" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
-      <x:c r="H2" s="20"/>
-      <x:c r="I2" s="20"/>
-      <x:c r="J2" s="21"/>
+      <x:c r="B2" s="22" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="26" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" s="26"/>
+      <x:c r="F2" s="26"/>
+      <x:c r="G2" s="26"/>
+      <x:c r="H2" s="26"/>
+      <x:c r="I2" s="26"/>
+      <x:c r="J2" s="27"/>
     </x:row>
     <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="18"/>
-      <x:c r="C3" s="19"/>
-      <x:c r="D3" s="22" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="22"/>
-      <x:c r="G3" s="22"/>
-      <x:c r="H3" s="22"/>
-      <x:c r="I3" s="22"/>
-      <x:c r="J3" s="23"/>
+      <x:c r="B3" s="24"/>
+      <x:c r="C3" s="25"/>
+      <x:c r="D3" s="28" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E3" s="28"/>
+      <x:c r="F3" s="28"/>
+      <x:c r="G3" s="28"/>
+      <x:c r="H3" s="28"/>
+      <x:c r="I3" s="28"/>
+      <x:c r="J3" s="29"/>
     </x:row>
     <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="16" t="s">
+      <x:c r="B4" s="22" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="20" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="21"/>
+      <x:c r="E4" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F4" s="30" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G4" s="31"/>
+      <x:c r="H4" s="32" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I4" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J4" s="23" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="24"/>
+      <x:c r="C5" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D5" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F5" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G5" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="14" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="7" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F4" s="24" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" s="25"/>
-      <x:c r="H4" s="26" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I4" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J4" s="17" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="18"/>
-      <x:c r="C5" s="8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D5" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="8" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G5" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="27"/>
+      <x:c r="H5" s="33"/>
       <x:c r="I5" s="8" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J5" s="19"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J5" s="25"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="10">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>45</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I6" s="10"/>
       <x:c r="J6" s="12"/>
@@ -2459,18 +2386,18 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F7" s="11"/>
       <x:c r="G7" s="11"/>
       <x:c r="H7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I7" s="11"/>
       <x:c r="J7" s="11"/>
@@ -2480,18 +2407,18 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>30</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F8" s="11"/>
       <x:c r="G8" s="11"/>
       <x:c r="H8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I8" s="11"/>
       <x:c r="J8" s="11"/>
@@ -2501,156 +2428,156 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E9" s="11" t="s">
-        <x:v>83</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="F9" s="11"/>
       <x:c r="G9" s="11"/>
       <x:c r="H9" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I9" s="11"/>
-      <x:c r="J9" s="33" t="s">
-        <x:v>17</x:v>
+      <x:c r="J9" s="17" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" ht="20" customHeight="1"/>
     <x:row r="11" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B11" s="28"/>
-      <x:c r="C11" s="28"/>
-      <x:c r="D11" s="29"/>
-      <x:c r="E11" s="29"/>
-      <x:c r="F11" s="29"/>
-      <x:c r="G11" s="29"/>
-      <x:c r="H11" s="29"/>
-      <x:c r="I11" s="29"/>
-      <x:c r="J11" s="29"/>
+      <x:c r="B11" s="34"/>
+      <x:c r="C11" s="34"/>
+      <x:c r="D11" s="35"/>
+      <x:c r="E11" s="35"/>
+      <x:c r="F11" s="35"/>
+      <x:c r="G11" s="35"/>
+      <x:c r="H11" s="35"/>
+      <x:c r="I11" s="35"/>
+      <x:c r="J11" s="35"/>
     </x:row>
     <x:row r="12" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B12" s="28"/>
-      <x:c r="C12" s="28"/>
-      <x:c r="D12" s="29"/>
-      <x:c r="E12" s="29"/>
-      <x:c r="F12" s="29"/>
-      <x:c r="G12" s="29"/>
-      <x:c r="H12" s="29"/>
-      <x:c r="I12" s="29"/>
-      <x:c r="J12" s="29"/>
+      <x:c r="B12" s="34"/>
+      <x:c r="C12" s="34"/>
+      <x:c r="D12" s="35"/>
+      <x:c r="E12" s="35"/>
+      <x:c r="F12" s="35"/>
+      <x:c r="G12" s="35"/>
+      <x:c r="H12" s="35"/>
+      <x:c r="I12" s="35"/>
+      <x:c r="J12" s="35"/>
     </x:row>
     <x:row r="13" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B13" s="28"/>
-      <x:c r="C13" s="28"/>
-      <x:c r="D13" s="28"/>
-      <x:c r="E13" s="30"/>
-      <x:c r="F13" s="28"/>
-      <x:c r="G13" s="28"/>
-      <x:c r="H13" s="28"/>
-      <x:c r="I13" s="30"/>
-      <x:c r="J13" s="28"/>
+      <x:c r="B13" s="34"/>
+      <x:c r="C13" s="34"/>
+      <x:c r="D13" s="34"/>
+      <x:c r="E13" s="14"/>
+      <x:c r="F13" s="34"/>
+      <x:c r="G13" s="34"/>
+      <x:c r="H13" s="34"/>
+      <x:c r="I13" s="14"/>
+      <x:c r="J13" s="34"/>
     </x:row>
     <x:row r="14" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B14" s="28"/>
-      <x:c r="C14" s="30"/>
-      <x:c r="D14" s="30"/>
-      <x:c r="E14" s="30"/>
-      <x:c r="F14" s="30"/>
-      <x:c r="G14" s="30"/>
-      <x:c r="H14" s="28"/>
-      <x:c r="I14" s="30"/>
-      <x:c r="J14" s="28"/>
+      <x:c r="B14" s="34"/>
+      <x:c r="C14" s="14"/>
+      <x:c r="D14" s="14"/>
+      <x:c r="E14" s="14"/>
+      <x:c r="F14" s="14"/>
+      <x:c r="G14" s="14"/>
+      <x:c r="H14" s="34"/>
+      <x:c r="I14" s="14"/>
+      <x:c r="J14" s="34"/>
     </x:row>
     <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="31"/>
-      <x:c r="C15" s="31"/>
-      <x:c r="D15" s="31"/>
-      <x:c r="E15" s="31"/>
-      <x:c r="F15" s="31"/>
-      <x:c r="G15" s="31"/>
-      <x:c r="H15" s="31"/>
-      <x:c r="I15" s="31"/>
-      <x:c r="J15" s="32"/>
+      <x:c r="B15" s="15"/>
+      <x:c r="C15" s="15"/>
+      <x:c r="D15" s="15"/>
+      <x:c r="E15" s="15"/>
+      <x:c r="F15" s="15"/>
+      <x:c r="G15" s="15"/>
+      <x:c r="H15" s="15"/>
+      <x:c r="I15" s="15"/>
+      <x:c r="J15" s="16"/>
     </x:row>
     <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="31"/>
-      <x:c r="C16" s="31"/>
-      <x:c r="D16" s="31"/>
-      <x:c r="E16" s="31"/>
-      <x:c r="F16" s="31"/>
-      <x:c r="G16" s="31"/>
-      <x:c r="H16" s="31"/>
-      <x:c r="I16" s="31"/>
-      <x:c r="J16" s="31"/>
+      <x:c r="B16" s="15"/>
+      <x:c r="C16" s="15"/>
+      <x:c r="D16" s="15"/>
+      <x:c r="E16" s="15"/>
+      <x:c r="F16" s="15"/>
+      <x:c r="G16" s="15"/>
+      <x:c r="H16" s="15"/>
+      <x:c r="I16" s="15"/>
+      <x:c r="J16" s="15"/>
     </x:row>
     <x:row r="17" spans="2:10">
-      <x:c r="B17" s="31"/>
-      <x:c r="C17" s="31"/>
-      <x:c r="D17" s="31"/>
-      <x:c r="E17" s="31"/>
-      <x:c r="F17" s="31"/>
-      <x:c r="G17" s="31"/>
-      <x:c r="H17" s="31"/>
-      <x:c r="I17" s="31"/>
-      <x:c r="J17" s="31"/>
+      <x:c r="B17" s="15"/>
+      <x:c r="C17" s="15"/>
+      <x:c r="D17" s="15"/>
+      <x:c r="E17" s="15"/>
+      <x:c r="F17" s="15"/>
+      <x:c r="G17" s="15"/>
+      <x:c r="H17" s="15"/>
+      <x:c r="I17" s="15"/>
+      <x:c r="J17" s="15"/>
     </x:row>
     <x:row r="18" spans="2:10">
-      <x:c r="B18" s="31"/>
-      <x:c r="C18" s="31"/>
-      <x:c r="D18" s="31"/>
-      <x:c r="E18" s="31"/>
-      <x:c r="F18" s="31"/>
-      <x:c r="G18" s="31"/>
-      <x:c r="H18" s="31"/>
-      <x:c r="I18" s="31"/>
-      <x:c r="J18" s="31"/>
+      <x:c r="B18" s="15"/>
+      <x:c r="C18" s="15"/>
+      <x:c r="D18" s="15"/>
+      <x:c r="E18" s="15"/>
+      <x:c r="F18" s="15"/>
+      <x:c r="G18" s="15"/>
+      <x:c r="H18" s="15"/>
+      <x:c r="I18" s="15"/>
+      <x:c r="J18" s="15"/>
     </x:row>
     <x:row r="19" spans="2:10">
-      <x:c r="B19" s="31"/>
-      <x:c r="C19" s="31"/>
-      <x:c r="D19" s="31"/>
-      <x:c r="E19" s="31"/>
-      <x:c r="F19" s="31"/>
-      <x:c r="G19" s="31"/>
-      <x:c r="H19" s="31"/>
-      <x:c r="I19" s="31"/>
-      <x:c r="J19" s="31"/>
+      <x:c r="B19" s="15"/>
+      <x:c r="C19" s="15"/>
+      <x:c r="D19" s="15"/>
+      <x:c r="E19" s="15"/>
+      <x:c r="F19" s="15"/>
+      <x:c r="G19" s="15"/>
+      <x:c r="H19" s="15"/>
+      <x:c r="I19" s="15"/>
+      <x:c r="J19" s="15"/>
     </x:row>
     <x:row r="20" spans="2:10">
-      <x:c r="B20" s="31"/>
-      <x:c r="C20" s="31"/>
-      <x:c r="D20" s="31"/>
-      <x:c r="E20" s="31"/>
-      <x:c r="F20" s="31"/>
-      <x:c r="G20" s="31"/>
-      <x:c r="H20" s="31"/>
-      <x:c r="I20" s="31"/>
-      <x:c r="J20" s="31"/>
+      <x:c r="B20" s="15"/>
+      <x:c r="C20" s="15"/>
+      <x:c r="D20" s="15"/>
+      <x:c r="E20" s="15"/>
+      <x:c r="F20" s="15"/>
+      <x:c r="G20" s="15"/>
+      <x:c r="H20" s="15"/>
+      <x:c r="I20" s="15"/>
+      <x:c r="J20" s="15"/>
     </x:row>
     <x:row r="21" spans="2:10">
-      <x:c r="B21" s="31"/>
-      <x:c r="C21" s="31"/>
-      <x:c r="D21" s="31"/>
-      <x:c r="E21" s="31"/>
-      <x:c r="F21" s="31"/>
-      <x:c r="G21" s="31"/>
-      <x:c r="H21" s="31"/>
-      <x:c r="I21" s="31"/>
-      <x:c r="J21" s="31"/>
+      <x:c r="B21" s="15"/>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="15"/>
+      <x:c r="E21" s="15"/>
+      <x:c r="F21" s="15"/>
+      <x:c r="G21" s="15"/>
+      <x:c r="H21" s="15"/>
+      <x:c r="I21" s="15"/>
+      <x:c r="J21" s="15"/>
     </x:row>
     <x:row r="22" spans="2:10">
-      <x:c r="B22" s="31"/>
-      <x:c r="C22" s="31"/>
-      <x:c r="D22" s="31"/>
-      <x:c r="E22" s="31"/>
-      <x:c r="F22" s="31"/>
-      <x:c r="G22" s="31"/>
-      <x:c r="H22" s="31"/>
-      <x:c r="I22" s="31"/>
-      <x:c r="J22" s="31"/>
+      <x:c r="B22" s="15"/>
+      <x:c r="C22" s="15"/>
+      <x:c r="D22" s="15"/>
+      <x:c r="E22" s="15"/>
+      <x:c r="F22" s="15"/>
+      <x:c r="G22" s="15"/>
+      <x:c r="H22" s="15"/>
+      <x:c r="I22" s="15"/>
+      <x:c r="J22" s="15"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="16">
@@ -2679,369 +2606,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="B2:J22"/>
+  <x:dimension ref="B2:R22"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
-  <x:cols>
-    <x:col min="1" max="1" width="5.77734375" style="5" customWidth="1"/>
-    <x:col min="2" max="2" width="5.77734375" style="6" customWidth="1"/>
-    <x:col min="3" max="4" width="13.77734375" style="6" customWidth="1"/>
-    <x:col min="5" max="5" width="19.375" style="6" customWidth="1"/>
-    <x:col min="6" max="7" width="8.77734375" style="6" customWidth="1"/>
-    <x:col min="8" max="9" width="13.77734375" style="6" customWidth="1"/>
-    <x:col min="10" max="10" width="34.875" style="6" customWidth="1"/>
-    <x:col min="11" max="18" width="13.77734375" style="6" customWidth="1"/>
-    <x:col min="19" max="16384" width="9.00390625" style="5"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" ht="20" customHeight="1"/>
-    <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C2" s="17"/>
-      <x:c r="D2" s="20" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
-      <x:c r="H2" s="20"/>
-      <x:c r="I2" s="20"/>
-      <x:c r="J2" s="21"/>
-    </x:row>
-    <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="18"/>
-      <x:c r="C3" s="19"/>
-      <x:c r="D3" s="22" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="22"/>
-      <x:c r="G3" s="22"/>
-      <x:c r="H3" s="22"/>
-      <x:c r="I3" s="22"/>
-      <x:c r="J3" s="23"/>
-    </x:row>
-    <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="14" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="7" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F4" s="24" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" s="25"/>
-      <x:c r="H4" s="26" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I4" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J4" s="17" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="18"/>
-      <x:c r="C5" s="8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D5" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="8" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G5" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="27"/>
-      <x:c r="I5" s="8" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J5" s="19"/>
-    </x:row>
-    <x:row r="6" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B6" s="10">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D6" s="10" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E6" s="10" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F6" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G6" s="10"/>
-      <x:c r="H6" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I6" s="10"/>
-      <x:c r="J6" s="12" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B7" s="11">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C7" s="11" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D7" s="11" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E7" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F7" s="34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G7" s="11"/>
-      <x:c r="H7" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I7" s="11"/>
-      <x:c r="J7" s="11" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B8" s="11">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C8" s="11" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D8" s="11" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E8" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F8" s="34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G8" s="35" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H8" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I8" s="11"/>
-      <x:c r="J8" s="11" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B9" s="11">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C9" s="11" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D9" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E9" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F9" s="34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G9" s="35" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="H9" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I9" s="11"/>
-      <x:c r="J9" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" ht="20" customHeight="1"/>
-    <x:row r="11" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B11" s="28"/>
-      <x:c r="C11" s="28"/>
-      <x:c r="D11" s="29"/>
-      <x:c r="E11" s="29"/>
-      <x:c r="F11" s="29"/>
-      <x:c r="G11" s="29"/>
-      <x:c r="H11" s="29"/>
-      <x:c r="I11" s="29"/>
-      <x:c r="J11" s="29"/>
-    </x:row>
-    <x:row r="12" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B12" s="28"/>
-      <x:c r="C12" s="28"/>
-      <x:c r="D12" s="29"/>
-      <x:c r="E12" s="29"/>
-      <x:c r="F12" s="29"/>
-      <x:c r="G12" s="29"/>
-      <x:c r="H12" s="29"/>
-      <x:c r="I12" s="29"/>
-      <x:c r="J12" s="29"/>
-    </x:row>
-    <x:row r="13" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B13" s="28"/>
-      <x:c r="C13" s="28"/>
-      <x:c r="D13" s="28"/>
-      <x:c r="E13" s="30"/>
-      <x:c r="F13" s="28"/>
-      <x:c r="G13" s="28"/>
-      <x:c r="H13" s="28"/>
-      <x:c r="I13" s="30"/>
-      <x:c r="J13" s="28"/>
-    </x:row>
-    <x:row r="14" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B14" s="28"/>
-      <x:c r="C14" s="30"/>
-      <x:c r="D14" s="30"/>
-      <x:c r="E14" s="30"/>
-      <x:c r="F14" s="30"/>
-      <x:c r="G14" s="30"/>
-      <x:c r="H14" s="28"/>
-      <x:c r="I14" s="30"/>
-      <x:c r="J14" s="28"/>
-    </x:row>
-    <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="31"/>
-      <x:c r="C15" s="31"/>
-      <x:c r="D15" s="31"/>
-      <x:c r="E15" s="31"/>
-      <x:c r="F15" s="31"/>
-      <x:c r="G15" s="31"/>
-      <x:c r="H15" s="31"/>
-      <x:c r="I15" s="31"/>
-      <x:c r="J15" s="32"/>
-    </x:row>
-    <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="31"/>
-      <x:c r="C16" s="31"/>
-      <x:c r="D16" s="31"/>
-      <x:c r="E16" s="31"/>
-      <x:c r="F16" s="31"/>
-      <x:c r="G16" s="31"/>
-      <x:c r="H16" s="31"/>
-      <x:c r="I16" s="31"/>
-      <x:c r="J16" s="31"/>
-    </x:row>
-    <x:row r="17" spans="2:10">
-      <x:c r="B17" s="31"/>
-      <x:c r="C17" s="31"/>
-      <x:c r="D17" s="31"/>
-      <x:c r="E17" s="31"/>
-      <x:c r="F17" s="31"/>
-      <x:c r="G17" s="31"/>
-      <x:c r="H17" s="31"/>
-      <x:c r="I17" s="31"/>
-      <x:c r="J17" s="31"/>
-    </x:row>
-    <x:row r="18" spans="2:10">
-      <x:c r="B18" s="31"/>
-      <x:c r="C18" s="31"/>
-      <x:c r="D18" s="31"/>
-      <x:c r="E18" s="31"/>
-      <x:c r="F18" s="31"/>
-      <x:c r="G18" s="31"/>
-      <x:c r="H18" s="31"/>
-      <x:c r="I18" s="31"/>
-      <x:c r="J18" s="31"/>
-    </x:row>
-    <x:row r="19" spans="2:10">
-      <x:c r="B19" s="31"/>
-      <x:c r="C19" s="31"/>
-      <x:c r="D19" s="31"/>
-      <x:c r="E19" s="31"/>
-      <x:c r="F19" s="31"/>
-      <x:c r="G19" s="31"/>
-      <x:c r="H19" s="31"/>
-      <x:c r="I19" s="31"/>
-      <x:c r="J19" s="31"/>
-    </x:row>
-    <x:row r="20" spans="2:10">
-      <x:c r="B20" s="31"/>
-      <x:c r="C20" s="31"/>
-      <x:c r="D20" s="31"/>
-      <x:c r="E20" s="31"/>
-      <x:c r="F20" s="31"/>
-      <x:c r="G20" s="31"/>
-      <x:c r="H20" s="31"/>
-      <x:c r="I20" s="31"/>
-      <x:c r="J20" s="31"/>
-    </x:row>
-    <x:row r="21" spans="2:10">
-      <x:c r="B21" s="31"/>
-      <x:c r="C21" s="31"/>
-      <x:c r="D21" s="31"/>
-      <x:c r="E21" s="31"/>
-      <x:c r="F21" s="31"/>
-      <x:c r="G21" s="31"/>
-      <x:c r="H21" s="31"/>
-      <x:c r="I21" s="31"/>
-      <x:c r="J21" s="31"/>
-    </x:row>
-    <x:row r="22" spans="2:10">
-      <x:c r="B22" s="31"/>
-      <x:c r="C22" s="31"/>
-      <x:c r="D22" s="31"/>
-      <x:c r="E22" s="31"/>
-      <x:c r="F22" s="31"/>
-      <x:c r="G22" s="31"/>
-      <x:c r="H22" s="31"/>
-      <x:c r="I22" s="31"/>
-      <x:c r="J22" s="31"/>
-    </x:row>
-  </x:sheetData>
-  <x:mergeCells count="16">
-    <x:mergeCell ref="C4:D4"/>
-    <x:mergeCell ref="B2:C3"/>
-    <x:mergeCell ref="B4:B5"/>
-    <x:mergeCell ref="J4:J5"/>
-    <x:mergeCell ref="D2:J2"/>
-    <x:mergeCell ref="D3:J3"/>
-    <x:mergeCell ref="F4:G4"/>
-    <x:mergeCell ref="H4:H5"/>
-    <x:mergeCell ref="C13:D13"/>
-    <x:mergeCell ref="B11:C12"/>
-    <x:mergeCell ref="B13:B14"/>
-    <x:mergeCell ref="J13:J14"/>
-    <x:mergeCell ref="D11:J11"/>
-    <x:mergeCell ref="D12:J12"/>
-    <x:mergeCell ref="F13:G13"/>
-    <x:mergeCell ref="H13:H14"/>
-  </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="B2:R26"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -3061,104 +2628,104 @@
   <x:sheetData>
     <x:row r="1" ht="20" customHeight="1"/>
     <x:row r="2" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B2" s="16" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C2" s="17"/>
-      <x:c r="D2" s="20" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E2" s="20"/>
-      <x:c r="F2" s="20"/>
-      <x:c r="G2" s="20"/>
-      <x:c r="H2" s="20"/>
-      <x:c r="I2" s="20"/>
-      <x:c r="J2" s="21"/>
+      <x:c r="B2" s="22" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="26" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E2" s="26"/>
+      <x:c r="F2" s="26"/>
+      <x:c r="G2" s="26"/>
+      <x:c r="H2" s="26"/>
+      <x:c r="I2" s="26"/>
+      <x:c r="J2" s="27"/>
     </x:row>
     <x:row r="3" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B3" s="18"/>
-      <x:c r="C3" s="19"/>
-      <x:c r="D3" s="22" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E3" s="22"/>
-      <x:c r="F3" s="22"/>
-      <x:c r="G3" s="22"/>
-      <x:c r="H3" s="22"/>
-      <x:c r="I3" s="22"/>
-      <x:c r="J3" s="23"/>
+      <x:c r="B3" s="24"/>
+      <x:c r="C3" s="25"/>
+      <x:c r="D3" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E3" s="28"/>
+      <x:c r="F3" s="28"/>
+      <x:c r="G3" s="28"/>
+      <x:c r="H3" s="28"/>
+      <x:c r="I3" s="28"/>
+      <x:c r="J3" s="29"/>
     </x:row>
     <x:row r="4" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B4" s="16" t="s">
+      <x:c r="B4" s="22" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="20" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="21"/>
+      <x:c r="E4" s="7" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F4" s="30" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G4" s="31"/>
+      <x:c r="H4" s="32" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I4" s="7" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="J4" s="23" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B5" s="24"/>
+      <x:c r="C5" s="8" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D5" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F5" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G5" s="8" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C4" s="14" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="D4" s="15"/>
-      <x:c r="E4" s="7" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="F4" s="24" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G4" s="25"/>
-      <x:c r="H4" s="26" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="I4" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="J4" s="17" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B5" s="18"/>
-      <x:c r="C5" s="8" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D5" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="8" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="F5" s="8" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G5" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="H5" s="27"/>
+      <x:c r="H5" s="33"/>
       <x:c r="I5" s="8" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="J5" s="19"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J5" s="25"/>
     </x:row>
     <x:row r="6" spans="2:10" ht="20" customHeight="1">
       <x:c r="B6" s="10">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>73</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="10" t="s">
-        <x:v>72</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E6" s="10" t="s">
-        <x:v>44</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F6" s="13" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G6" s="10"/>
       <x:c r="H6" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I6" s="10"/>
       <x:c r="J6" s="12" t="s">
-        <x:v>81</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:10" ht="20" customHeight="1">
@@ -3166,26 +2733,24 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="11" t="s">
-        <x:v>58</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E7" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F7" s="34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G7" s="35" t="s">
-        <x:v>2</x:v>
-      </x:c>
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F7" s="18" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G7" s="11"/>
       <x:c r="H7" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I7" s="11"/>
       <x:c r="J7" s="11" t="s">
-        <x:v>82</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:10" ht="20" customHeight="1">
@@ -3193,53 +2758,51 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="F8" s="34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G8" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F8" s="11"/>
+      <x:c r="G8" s="19" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="10" t="s">
-        <x:v>68</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I8" s="11"/>
       <x:c r="J8" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:18" s="5" customFormat="1" ht="40.5" customHeight="1">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:18" s="5" customFormat="1" ht="20" customHeight="1">
       <x:c r="B9" s="11">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C9" s="10" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D9" s="10" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E9" s="10" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F9" s="13" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G9" s="39" t="s">
-        <x:v>2</x:v>
+      <x:c r="C9" s="11" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D9" s="11" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E9" s="11" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F9" s="18" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G9" s="19" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H9" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I9" s="10"/>
-      <x:c r="J9" s="37" t="s">
-        <x:v>18</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I9" s="11"/>
+      <x:c r="J9" s="11" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K9" s="6"/>
       <x:c r="L9" s="6"/>
@@ -3250,255 +2813,185 @@
       <x:c r="Q9" s="6"/>
       <x:c r="R9" s="6"/>
     </x:row>
-    <x:row r="10" spans="2:18" s="5" customFormat="1" ht="40.5" customHeight="1">
+    <x:row r="10" spans="2:10" ht="40.5" customHeight="1">
       <x:c r="B10" s="11">
         <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E10" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F10" s="34" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G10" s="35" t="s">
-        <x:v>2</x:v>
-      </x:c>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F10" s="11"/>
+      <x:c r="G10" s="11"/>
       <x:c r="H10" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I10" s="11"/>
-      <x:c r="J10" s="38" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="K10" s="6"/>
-      <x:c r="L10" s="6"/>
-      <x:c r="M10" s="6"/>
-      <x:c r="N10" s="6"/>
-      <x:c r="O10" s="6"/>
-      <x:c r="P10" s="6"/>
-      <x:c r="Q10" s="6"/>
-      <x:c r="R10" s="6"/>
-    </x:row>
-    <x:row r="11" spans="2:18" s="5" customFormat="1" ht="40.5" customHeight="1">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I10" s="11" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J10" s="17" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:10" ht="20" customHeight="1">
       <x:c r="B11" s="11">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F11" s="11"/>
       <x:c r="G11" s="11"/>
-      <x:c r="H11" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="I11" s="11" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="J11" s="36" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="K11" s="6"/>
-      <x:c r="L11" s="6"/>
-      <x:c r="M11" s="6"/>
-      <x:c r="N11" s="6"/>
-      <x:c r="O11" s="6"/>
-      <x:c r="P11" s="6"/>
-      <x:c r="Q11" s="6"/>
-      <x:c r="R11" s="6"/>
-    </x:row>
-    <x:row r="12" spans="2:18" s="5" customFormat="1" ht="20" customHeight="1">
+      <x:c r="H11" s="10"/>
+      <x:c r="I11" s="11"/>
+      <x:c r="J11" s="11" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:10" ht="20" customHeight="1">
       <x:c r="B12" s="11">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D12" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F12" s="11"/>
       <x:c r="G12" s="11"/>
       <x:c r="H12" s="10"/>
       <x:c r="I12" s="11"/>
-      <x:c r="J12" s="11"/>
-      <x:c r="K12" s="6"/>
-      <x:c r="L12" s="6"/>
-      <x:c r="M12" s="6"/>
-      <x:c r="N12" s="6"/>
-      <x:c r="O12" s="6"/>
-      <x:c r="P12" s="6"/>
-      <x:c r="Q12" s="6"/>
-      <x:c r="R12" s="6"/>
+      <x:c r="J12" s="11" t="s">
+        <x:v>45</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B13" s="11">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C13" s="11" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D13" s="11" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E13" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F13" s="11"/>
-      <x:c r="G13" s="11"/>
-      <x:c r="H13" s="10"/>
-      <x:c r="I13" s="11"/>
-      <x:c r="J13" s="11"/>
-    </x:row>
-    <x:row r="14" ht="20" customHeight="1"/>
+      <x:c r="B13" s="34"/>
+      <x:c r="C13" s="34"/>
+      <x:c r="D13" s="34"/>
+      <x:c r="E13" s="14"/>
+      <x:c r="F13" s="34"/>
+      <x:c r="G13" s="34"/>
+      <x:c r="H13" s="34"/>
+      <x:c r="I13" s="14"/>
+      <x:c r="J13" s="34"/>
+    </x:row>
+    <x:row r="14" spans="2:10" ht="20" customHeight="1">
+      <x:c r="B14" s="34"/>
+      <x:c r="C14" s="14"/>
+      <x:c r="D14" s="14"/>
+      <x:c r="E14" s="14"/>
+      <x:c r="F14" s="14"/>
+      <x:c r="G14" s="14"/>
+      <x:c r="H14" s="34"/>
+      <x:c r="I14" s="14"/>
+      <x:c r="J14" s="34"/>
+    </x:row>
     <x:row r="15" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B15" s="28"/>
-      <x:c r="C15" s="28"/>
-      <x:c r="D15" s="29"/>
-      <x:c r="E15" s="29"/>
-      <x:c r="F15" s="29"/>
-      <x:c r="G15" s="29"/>
-      <x:c r="H15" s="29"/>
-      <x:c r="I15" s="29"/>
-      <x:c r="J15" s="29"/>
+      <x:c r="B15" s="15"/>
+      <x:c r="C15" s="15"/>
+      <x:c r="D15" s="15"/>
+      <x:c r="E15" s="15"/>
+      <x:c r="F15" s="15"/>
+      <x:c r="G15" s="15"/>
+      <x:c r="H15" s="15"/>
+      <x:c r="I15" s="15"/>
+      <x:c r="J15" s="16"/>
     </x:row>
     <x:row r="16" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B16" s="28"/>
-      <x:c r="C16" s="28"/>
-      <x:c r="D16" s="29"/>
-      <x:c r="E16" s="29"/>
-      <x:c r="F16" s="29"/>
-      <x:c r="G16" s="29"/>
-      <x:c r="H16" s="29"/>
-      <x:c r="I16" s="29"/>
-      <x:c r="J16" s="29"/>
-    </x:row>
-    <x:row r="17" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B17" s="28"/>
-      <x:c r="C17" s="28"/>
-      <x:c r="D17" s="28"/>
-      <x:c r="E17" s="30"/>
-      <x:c r="F17" s="28"/>
-      <x:c r="G17" s="28"/>
-      <x:c r="H17" s="28"/>
-      <x:c r="I17" s="30"/>
-      <x:c r="J17" s="28"/>
-    </x:row>
-    <x:row r="18" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B18" s="28"/>
-      <x:c r="C18" s="30"/>
-      <x:c r="D18" s="30"/>
-      <x:c r="E18" s="30"/>
-      <x:c r="F18" s="30"/>
-      <x:c r="G18" s="30"/>
-      <x:c r="H18" s="28"/>
-      <x:c r="I18" s="30"/>
-      <x:c r="J18" s="28"/>
-    </x:row>
-    <x:row r="19" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B19" s="31"/>
-      <x:c r="C19" s="31"/>
-      <x:c r="D19" s="31"/>
-      <x:c r="E19" s="31"/>
-      <x:c r="F19" s="31"/>
-      <x:c r="G19" s="31"/>
-      <x:c r="H19" s="31"/>
-      <x:c r="I19" s="31"/>
-      <x:c r="J19" s="32"/>
-    </x:row>
-    <x:row r="20" spans="2:10" ht="20" customHeight="1">
-      <x:c r="B20" s="31"/>
-      <x:c r="C20" s="31"/>
-      <x:c r="D20" s="31"/>
-      <x:c r="E20" s="31"/>
-      <x:c r="F20" s="31"/>
-      <x:c r="G20" s="31"/>
-      <x:c r="H20" s="31"/>
-      <x:c r="I20" s="31"/>
-      <x:c r="J20" s="31"/>
+      <x:c r="B16" s="15"/>
+      <x:c r="C16" s="15"/>
+      <x:c r="D16" s="15"/>
+      <x:c r="E16" s="15"/>
+      <x:c r="F16" s="15"/>
+      <x:c r="G16" s="15"/>
+      <x:c r="H16" s="15"/>
+      <x:c r="I16" s="15"/>
+      <x:c r="J16" s="15"/>
+    </x:row>
+    <x:row r="17" spans="2:10">
+      <x:c r="B17" s="15"/>
+      <x:c r="C17" s="15"/>
+      <x:c r="D17" s="15"/>
+      <x:c r="E17" s="15"/>
+      <x:c r="F17" s="15"/>
+      <x:c r="G17" s="15"/>
+      <x:c r="H17" s="15"/>
+      <x:c r="I17" s="15"/>
+      <x:c r="J17" s="15"/>
+    </x:row>
+    <x:row r="18" spans="2:10">
+      <x:c r="B18" s="15"/>
+      <x:c r="C18" s="15"/>
+      <x:c r="D18" s="15"/>
+      <x:c r="E18" s="15"/>
+      <x:c r="F18" s="15"/>
+      <x:c r="G18" s="15"/>
+      <x:c r="H18" s="15"/>
+      <x:c r="I18" s="15"/>
+      <x:c r="J18" s="15"/>
+    </x:row>
+    <x:row r="19" spans="2:10">
+      <x:c r="B19" s="15"/>
+      <x:c r="C19" s="15"/>
+      <x:c r="D19" s="15"/>
+      <x:c r="E19" s="15"/>
+      <x:c r="F19" s="15"/>
+      <x:c r="G19" s="15"/>
+      <x:c r="H19" s="15"/>
+      <x:c r="I19" s="15"/>
+      <x:c r="J19" s="15"/>
+    </x:row>
+    <x:row r="20" spans="2:10">
+      <x:c r="B20" s="15"/>
+      <x:c r="C20" s="15"/>
+      <x:c r="D20" s="15"/>
+      <x:c r="E20" s="15"/>
+      <x:c r="F20" s="15"/>
+      <x:c r="G20" s="15"/>
+      <x:c r="H20" s="15"/>
+      <x:c r="I20" s="15"/>
+      <x:c r="J20" s="15"/>
     </x:row>
     <x:row r="21" spans="2:10">
-      <x:c r="B21" s="31"/>
-      <x:c r="C21" s="31"/>
-      <x:c r="D21" s="31"/>
-      <x:c r="E21" s="31"/>
-      <x:c r="F21" s="31"/>
-      <x:c r="G21" s="31"/>
-      <x:c r="H21" s="31"/>
-      <x:c r="I21" s="31"/>
-      <x:c r="J21" s="31"/>
+      <x:c r="B21" s="15"/>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="15"/>
+      <x:c r="E21" s="15"/>
+      <x:c r="F21" s="15"/>
+      <x:c r="G21" s="15"/>
+      <x:c r="H21" s="15"/>
+      <x:c r="I21" s="15"/>
+      <x:c r="J21" s="15"/>
     </x:row>
     <x:row r="22" spans="2:10">
-      <x:c r="B22" s="31"/>
-      <x:c r="C22" s="31"/>
-      <x:c r="D22" s="31"/>
-      <x:c r="E22" s="31"/>
-      <x:c r="F22" s="31"/>
-      <x:c r="G22" s="31"/>
-      <x:c r="H22" s="31"/>
-      <x:c r="I22" s="31"/>
-      <x:c r="J22" s="31"/>
-    </x:row>
-    <x:row r="23" spans="2:10">
-      <x:c r="B23" s="31"/>
-      <x:c r="C23" s="31"/>
-      <x:c r="D23" s="31"/>
-      <x:c r="E23" s="31"/>
-      <x:c r="F23" s="31"/>
-      <x:c r="G23" s="31"/>
-      <x:c r="H23" s="31"/>
-      <x:c r="I23" s="31"/>
-      <x:c r="J23" s="31"/>
-    </x:row>
-    <x:row r="24" spans="2:10">
-      <x:c r="B24" s="31"/>
-      <x:c r="C24" s="31"/>
-      <x:c r="D24" s="31"/>
-      <x:c r="E24" s="31"/>
-      <x:c r="F24" s="31"/>
-      <x:c r="G24" s="31"/>
-      <x:c r="H24" s="31"/>
-      <x:c r="I24" s="31"/>
-      <x:c r="J24" s="31"/>
-    </x:row>
-    <x:row r="25" spans="2:10">
-      <x:c r="B25" s="31"/>
-      <x:c r="C25" s="31"/>
-      <x:c r="D25" s="31"/>
-      <x:c r="E25" s="31"/>
-      <x:c r="F25" s="31"/>
-      <x:c r="G25" s="31"/>
-      <x:c r="H25" s="31"/>
-      <x:c r="I25" s="31"/>
-      <x:c r="J25" s="31"/>
-    </x:row>
-    <x:row r="26" spans="2:10">
-      <x:c r="B26" s="31"/>
-      <x:c r="C26" s="31"/>
-      <x:c r="D26" s="31"/>
-      <x:c r="E26" s="31"/>
-      <x:c r="F26" s="31"/>
-      <x:c r="G26" s="31"/>
-      <x:c r="H26" s="31"/>
-      <x:c r="I26" s="31"/>
-      <x:c r="J26" s="31"/>
+      <x:c r="B22" s="15"/>
+      <x:c r="C22" s="15"/>
+      <x:c r="D22" s="15"/>
+      <x:c r="E22" s="15"/>
+      <x:c r="F22" s="15"/>
+      <x:c r="G22" s="15"/>
+      <x:c r="H22" s="15"/>
+      <x:c r="I22" s="15"/>
+      <x:c r="J22" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="16">
+  <x:mergeCells count="13">
     <x:mergeCell ref="C4:D4"/>
     <x:mergeCell ref="B2:C3"/>
     <x:mergeCell ref="B4:B5"/>
@@ -3507,14 +3000,11 @@
     <x:mergeCell ref="D3:J3"/>
     <x:mergeCell ref="F4:G4"/>
     <x:mergeCell ref="H4:H5"/>
-    <x:mergeCell ref="C17:D17"/>
-    <x:mergeCell ref="B15:C16"/>
-    <x:mergeCell ref="B17:B18"/>
-    <x:mergeCell ref="J17:J18"/>
-    <x:mergeCell ref="D15:J15"/>
-    <x:mergeCell ref="D16:J16"/>
-    <x:mergeCell ref="F17:G17"/>
-    <x:mergeCell ref="H17:H18"/>
+    <x:mergeCell ref="C13:D13"/>
+    <x:mergeCell ref="B13:B14"/>
+    <x:mergeCell ref="J13:J14"/>
+    <x:mergeCell ref="F13:G13"/>
+    <x:mergeCell ref="H13:H14"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
